--- a/pytest_project/excel_data/Store/store.xlsx
+++ b/pytest_project/excel_data/Store/store.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="邮箱错误" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="69">
   <si>
     <t>提示信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,10 +155,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>本次付款被您的银行拒绝。请重试，或使用另外的支付方式。联系您的银行以获取进一步的信息。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>:62122 62502 00918 2455</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -286,6 +282,18 @@
   </si>
   <si>
     <t>1.66/Month</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请在弹窗中用您的银行网站完成身份验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请在弹窗中用您的银行网站完成身份验证</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -801,7 +809,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -985,12 +993,12 @@
         <v>27</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>28</v>
@@ -1005,12 +1013,12 @@
         <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
@@ -1023,12 +1031,12 @@
         <v>31</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1039,33 +1047,33 @@
         <v>31</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1075,15 +1083,15 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>29</v>
@@ -1095,13 +1103,13 @@
         <v>31</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>29</v>
@@ -1113,13 +1121,13 @@
         <v>31</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
@@ -1129,13 +1137,13 @@
         <v>31</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1143,19 +1151,19 @@
         <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1165,18 +1173,18 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>30</v>
@@ -1185,7 +1193,7 @@
         <v>31</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1194,7 +1202,7 @@
         <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>30</v>
@@ -1203,14 +1211,14 @@
         <v>31</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>30</v>
@@ -1219,33 +1227,33 @@
         <v>31</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1255,27 +1263,27 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1284,32 +1292,32 @@
         <v>28</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1317,13 +1325,13 @@
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1331,11 +1339,11 @@
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1345,12 +1353,12 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>28</v>
@@ -1362,10 +1370,10 @@
         <v>30</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1380,10 +1388,10 @@
         <v>30</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1396,10 +1404,10 @@
         <v>30</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1410,10 +1418,10 @@
         <v>30</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1422,10 +1430,10 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1435,7 +1443,7 @@
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1985,8 +1993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2016,12 +2024,12 @@
         <v>27</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>28</v>
@@ -2036,12 +2044,12 @@
         <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>28</v>
@@ -2056,7 +2064,7 @@
         <v>31</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -2314,34 +2322,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2354,7 +2362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -2365,34 +2373,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">

--- a/pytest_project/excel_data/Store/store.xlsx
+++ b/pytest_project/excel_data/Store/store.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="68">
   <si>
     <t>提示信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -289,11 +289,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>请在弹窗中用您的银行网站完成身份验证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请在弹窗中用您的银行网站完成身份验证</t>
+    <t>本次付款被您的银行拒绝。请重试，或使用另外的支付方式。联系您的银行以获取进一步的信息。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1994,7 +1990,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2064,7 +2060,7 @@
         <v>31</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">

--- a/pytest_project/excel_data/Store/store.xlsx
+++ b/pytest_project/excel_data/Store/store.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="67">
   <si>
     <t>提示信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -229,10 +229,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>62284 80088 14184 8874</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>购买时长</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -289,7 +285,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>本次付款被您的银行拒绝。请重试，或使用另外的支付方式。联系您的银行以获取进一步的信息。</t>
+    <t>银行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1990,7 +1986,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2020,7 +2016,7 @@
         <v>27</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2040,28 +2036,16 @@
         <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>67</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
@@ -2318,34 +2302,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2369,34 +2353,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">

--- a/pytest_project/excel_data/Store/store.xlsx
+++ b/pytest_project/excel_data/Store/store.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="邮箱错误" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="65">
   <si>
     <t>提示信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,14 +101,6 @@
   </si>
   <si>
     <t>优惠码不能为空。</t>
-  </si>
-  <si>
-    <t>youhuima2021</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本优惠券已被使用太多次。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>testnewpmm</t>
@@ -801,7 +793,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -837,12 +829,12 @@
         <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
@@ -905,10 +897,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -934,16 +926,8 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="A3" s="2"/>
       <c r="B3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -970,102 +954,102 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1075,87 +1059,87 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1165,87 +1149,87 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1255,61 +1239,61 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1317,13 +1301,13 @@
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1331,11 +1315,11 @@
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1345,61 +1329,61 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E26" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E27" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1407,13 +1391,13 @@
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1422,10 +1406,10 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1435,7 +1419,7 @@
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1985,7 +1969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
@@ -2001,42 +1985,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2302,34 +2286,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2353,34 +2337,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">

--- a/pytest_project/excel_data/Store/store.xlsx
+++ b/pytest_project/excel_data/Store/store.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="邮箱错误" sheetId="1" r:id="rId1"/>
@@ -900,7 +900,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2327,7 +2327,7 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/pytest_project/excel_data/Store/store.xlsx
+++ b/pytest_project/excel_data/Store/store.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="邮箱错误" sheetId="1" r:id="rId1"/>
@@ -265,10 +265,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$49.95</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.66/Month</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -278,6 +274,10 @@
   </si>
   <si>
     <t>银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49.95</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -899,7 +899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -1970,7 +1970,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2000,7 +2000,7 @@
         <v>25</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2020,7 +2020,7 @@
         <v>29</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2305,7 +2305,7 @@
         <v>54</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2326,8 +2326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2364,7 +2364,7 @@
         <v>58</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">

--- a/pytest_project/excel_data/Store/store.xlsx
+++ b/pytest_project/excel_data/Store/store.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="邮箱错误" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,9 @@
     <sheet name="卡片支付银行异常" sheetId="7" r:id="rId7"/>
     <sheet name="购买pmm套餐" sheetId="8" r:id="rId8"/>
     <sheet name="购买video套餐" sheetId="9" r:id="rId9"/>
+    <sheet name="pmm套餐价格" sheetId="10" r:id="rId10"/>
+    <sheet name="video-win套餐价格" sheetId="11" r:id="rId11"/>
+    <sheet name="video-mac套餐价格" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,257 +30,577 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="145">
   <si>
     <t>提示信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>您需要输入一个有效邮箱。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>muzijian07king@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1325282680@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确格式邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lelee9895@gamil.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语言缩写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taiwan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您需要输入一个有效优惠码。</t>
+  </si>
+  <si>
+    <t>1111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠码不能为空。</t>
+  </si>
+  <si>
+    <t>testnewpmm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠折扣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持卡人姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>568</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:62122 62502 00918 2455</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12346</t>
+  </si>
+  <si>
+    <t>12347</t>
+  </si>
+  <si>
+    <t>12348</t>
+  </si>
+  <si>
+    <t>12349</t>
+  </si>
+  <si>
+    <t>569</t>
+  </si>
+  <si>
+    <t>预期结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您输入的期限月份无效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您输入的 CVV 无效。</t>
+  </si>
+  <si>
+    <t>56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>China</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>62122 62502 00918 2455</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买时长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-Month License</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-Year License</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lifetime License</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29.95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Annual Subscription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Family License</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29.95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.66/Month</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49.95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠前价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠后价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$19.95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$9.95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>muzijian07king@123..123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>您输入的邮箱无效。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>您需要输入一个有效邮箱。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>muzijian07king@163.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1325282680@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正确格式邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lelee9895@gamil.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>语言缩写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>语言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Taiwan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优惠码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>错误信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>您需要输入一个有效优惠码。</t>
-  </si>
-  <si>
-    <t>1111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优惠码不能为空。</t>
-  </si>
-  <si>
-    <t>testnewpmm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优惠折扣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>持卡人姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安全码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>568</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>:62122 62502 00918 2455</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12345</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12346</t>
-  </si>
-  <si>
-    <t>12347</t>
-  </si>
-  <si>
-    <t>12348</t>
-  </si>
-  <si>
-    <t>12349</t>
-  </si>
-  <si>
-    <t>569</t>
+    <t>您输入的邮箱无效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$39.95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$29.95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$14.95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$69.95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$79.95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iMyMac - PowerMyMac One Month License for 1 Mac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iMyMac - Video Converter for Win One Year License</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$19.95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iMyMac - Video Converter for Win One Month License</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Video Converter (Windows)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Video Converter Family License (Windows)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$59.95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$29.95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$299.75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$49.95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$249.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iMyMac - Video Converter One Month License</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iMyMac - Video Converter One Year License</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Video Converter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Video Converter Family License</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ 1 Month / 1 Mac ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ 1 year / 1 Mac ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 Mac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 Macs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ 1 year / 1 PC ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 PC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 PCs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ 1 Month / 1 PC ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您输入的名称无效。您输入的信用卡无效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您输入的名称无效。您输入的信用卡无效。您输入的期限月份无效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您输入的名称无效。您输入的信用卡无效。您输入的期限月份无效。您输入的期限年份无效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您输入的名称无效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您输入的信用卡无效。您输入的期限月份无效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您输入的名称无效。您输入的信用卡无效。您输入的期限月份无效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您输入的期限年份无效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您输入的信用卡无效。您输入的期限年份无效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您输入的名称无效。您输入的信用卡无效。您输入的期限年份无效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>您输入的信用卡无效。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>预期结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>您输入的名称无效。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>您输入的期限月份无效。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>您输入的期限年份无效。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>您输入的 CVV 无效。</t>
-  </si>
-  <si>
-    <t>56</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>China</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>62122 62502 00918 2455</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买时长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-Month License</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.95</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-Year License</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lifetime License</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>29.95</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Annual Subscription</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Family License</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19.95</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>29.95</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.66/Month</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预期结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>49.95</t>
+    <t>您输入的信用卡无效。您输入的 CVV 无效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您输入的名称无效。您输入的信用卡无效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您输入的名称无效。您输入的信用卡无效。您输入的 CVV 无效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您输入的名称无效。您输入的信用卡无效。您输入的期限月份无效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您输入的名称无效。您输入的信用卡无效。您输入的期限月份无效。您输入的 CVV 无效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您输入的名称无效。您输入的信用卡无效。您输入的期限月份无效。您输入的期限年份无效。您输入的 CVV 无效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您输入的名称无效。您输入的信用卡无效。您输入的期限月份无效。您输入的期限年份无效。您输入的 CVV 无效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您输入的名称无效。您输入的信用卡无效。您输入的期限月份无效。您输入的期限年份无效。您输入的 CVV 无效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您输入的名称无效。您输入的信用卡无效。您输入的期限月份无效。您输入的期限年份无效。您输入的 CVV 无效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iMyMac - PowerMyMac One Year License for 1 Mac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iMyMac - PowerMyMac One Year License for 2 Macs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iMyMac - PowerMyMac One Year License for 5 Macs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$59.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$44.95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$149.75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$79.95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$69.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iMyMac - PowerMyMac For 1 Mac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iMyMac - PowerMyMac For 2 Macs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iMyMac - PowerMyMac For 5 Macs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$109.95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$139.95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$349.75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$159.95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$189.8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -330,11 +653,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -619,18 +943,19 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="23.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -639,19 +964,24 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
+      <c r="A4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
@@ -712,6 +1042,376 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="53.25" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="50" customWidth="1"/>
+    <col min="2" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.875" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="50" customWidth="1"/>
+    <col min="2" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -736,25 +1436,25 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2"/>
     </row>
@@ -782,26 +1482,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -815,7 +1515,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -826,15 +1526,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
@@ -911,24 +1611,24 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
         <v>14</v>
-      </c>
-      <c r="B1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -939,117 +1639,117 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F98"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="90" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="104.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>37</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>37</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1059,358 +1759,352 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>37</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>40</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>40</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="F13" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="B15" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>28</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>42</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
+      <c r="A18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="C18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="F18" s="2" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="F19" s="2" t="s">
-        <v>42</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="B21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>29</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="A23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="D23" s="2" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="D24" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="F24" s="2" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="F25" s="2" t="s">
-        <v>45</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>46</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
@@ -1418,9 +2112,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
@@ -1925,38 +2617,6 @@
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="2"/>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1970,7 +2630,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1985,42 +2645,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2286,34 +2946,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2326,7 +2986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -2337,34 +2997,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">

--- a/pytest_project/excel_data/Store/store.xlsx
+++ b/pytest_project/excel_data/Store/store.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="143">
   <si>
     <t>提示信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -332,51 +332,247 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>$79.95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iMyMac - PowerMyMac One Month License for 1 Mac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iMyMac - Video Converter for Win One Year License</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$19.95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iMyMac - Video Converter for Win One Month License</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Video Converter (Windows)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Video Converter Family License (Windows)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$59.95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>$29.95</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$14.95</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$69.95</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$79.95</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iMyMac - PowerMyMac One Month License for 1 Mac</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iMyMac - Video Converter for Win One Year License</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$19.95</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iMyMac - Video Converter for Win One Month License</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Video Converter (Windows)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Video Converter Family License (Windows)</t>
+    <t>$30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$299.75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$49.95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$249.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iMyMac - Video Converter One Month License</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iMyMac - Video Converter One Year License</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Video Converter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Video Converter Family License</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ 1 Month / 1 Mac ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ 1 year / 1 Mac ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 Mac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 Macs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ 1 year / 1 PC ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 PC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 PCs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ 1 Month / 1 PC ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您输入的名称无效。您输入的信用卡无效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您输入的名称无效。您输入的信用卡无效。您输入的期限月份无效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您输入的名称无效。您输入的信用卡无效。您输入的期限月份无效。您输入的期限年份无效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您输入的名称无效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您输入的信用卡无效。您输入的期限月份无效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您输入的名称无效。您输入的信用卡无效。您输入的期限月份无效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您输入的期限年份无效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您输入的信用卡无效。您输入的期限年份无效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您输入的名称无效。您输入的信用卡无效。您输入的期限年份无效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您输入的信用卡无效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您输入的信用卡无效。您输入的 CVV 无效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您输入的名称无效。您输入的信用卡无效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您输入的名称无效。您输入的信用卡无效。您输入的 CVV 无效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您输入的名称无效。您输入的信用卡无效。您输入的期限月份无效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您输入的名称无效。您输入的信用卡无效。您输入的期限月份无效。您输入的 CVV 无效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您输入的名称无效。您输入的信用卡无效。您输入的期限月份无效。您输入的期限年份无效。您输入的 CVV 无效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您输入的名称无效。您输入的信用卡无效。您输入的期限月份无效。您输入的期限年份无效。您输入的 CVV 无效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您输入的名称无效。您输入的信用卡无效。您输入的期限月份无效。您输入的期限年份无效。您输入的 CVV 无效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您输入的名称无效。您输入的信用卡无效。您输入的期限月份无效。您输入的期限年份无效。您输入的 CVV 无效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iMyMac - PowerMyMac One Year License for 1 Mac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iMyMac - PowerMyMac One Year License for 2 Macs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iMyMac - PowerMyMac One Year License for 5 Macs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$59.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$149.75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iMyMac - PowerMyMac For 1 Mac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iMyMac - PowerMyMac For 2 Macs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iMyMac - PowerMyMac For 5 Macs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$139.95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$349.75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$24.95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$39.95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$64.95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$84.8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -384,223 +580,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$29.95</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$299.75</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$49.95</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$249.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iMyMac - Video Converter One Month License</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iMyMac - Video Converter One Year License</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Video Converter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Video Converter Family License</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ 1 Month / 1 Mac ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ 1 year / 1 Mac ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 Mac</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 Macs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ 1 year / 1 PC ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 PC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 PCs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ 1 Month / 1 PC ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>您输入的名称无效。您输入的信用卡无效。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>您输入的名称无效。您输入的信用卡无效。您输入的期限月份无效。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>您输入的名称无效。您输入的信用卡无效。您输入的期限月份无效。您输入的期限年份无效。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>您输入的名称无效。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>您输入的信用卡无效。您输入的期限月份无效。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>您输入的名称无效。您输入的信用卡无效。您输入的期限月份无效。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>您输入的期限年份无效。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>您输入的信用卡无效。您输入的期限年份无效。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>您输入的名称无效。您输入的信用卡无效。您输入的期限年份无效。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>您输入的信用卡无效。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>您输入的信用卡无效。您输入的 CVV 无效。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>您输入的名称无效。您输入的信用卡无效。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>您输入的名称无效。您输入的信用卡无效。您输入的 CVV 无效。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>您输入的名称无效。您输入的信用卡无效。您输入的期限月份无效。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>您输入的名称无效。您输入的信用卡无效。您输入的期限月份无效。您输入的 CVV 无效。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>您输入的名称无效。您输入的信用卡无效。您输入的期限月份无效。您输入的期限年份无效。您输入的 CVV 无效。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>您输入的名称无效。您输入的信用卡无效。您输入的期限月份无效。您输入的期限年份无效。您输入的 CVV 无效。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>您输入的名称无效。您输入的信用卡无效。您输入的期限月份无效。您输入的期限年份无效。您输入的 CVV 无效。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>您输入的名称无效。您输入的信用卡无效。您输入的期限月份无效。您输入的期限年份无效。您输入的 CVV 无效。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iMyMac - PowerMyMac One Year License for 1 Mac</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iMyMac - PowerMyMac One Year License for 2 Macs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iMyMac - PowerMyMac One Year License for 5 Macs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$59.9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$44.95</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$149.75</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$79.95</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$69.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iMyMac - PowerMyMac For 1 Mac</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iMyMac - PowerMyMac For 2 Macs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iMyMac - PowerMyMac For 5 Macs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$109.95</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$139.95</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$349.75</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$159.95</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$189.8</t>
+    <t>$89.95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$129.95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$219.8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1057,8 +1049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1083,7 +1075,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>63</v>
@@ -1097,86 +1089,86 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>78</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>139</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1215,12 +1207,12 @@
         <v>62</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>63</v>
@@ -1232,58 +1224,58 @@
         <v>65</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1332,12 +1324,12 @@
         <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>63</v>
@@ -1349,58 +1341,58 @@
         <v>65</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1689,7 +1681,7 @@
         <v>27</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1707,7 +1699,7 @@
         <v>27</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1723,7 +1715,7 @@
         <v>27</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1737,7 +1729,7 @@
         <v>34</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1749,7 +1741,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1759,7 +1751,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1779,7 +1771,7 @@
         <v>27</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1797,7 +1789,7 @@
         <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1813,7 +1805,7 @@
         <v>27</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1827,7 +1819,7 @@
         <v>27</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1839,7 +1831,7 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1877,7 +1869,7 @@
         <v>27</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1893,7 +1885,7 @@
         <v>27</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1907,7 +1899,7 @@
         <v>27</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1919,7 +1911,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1939,7 +1931,7 @@
         <v>27</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1957,7 +1949,7 @@
         <v>27</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1973,7 +1965,7 @@
         <v>27</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1987,7 +1979,7 @@
         <v>27</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1999,7 +1991,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -2037,7 +2029,7 @@
         <v>42</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -2053,7 +2045,7 @@
         <v>42</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -2067,7 +2059,7 @@
         <v>42</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -2079,7 +2071,7 @@
         <v>42</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">

--- a/pytest_project/excel_data/Store/store.xlsx
+++ b/pytest_project/excel_data/Store/store.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="邮箱错误" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="132">
   <si>
     <t>提示信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,10 +142,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>:62122 62502 00918 2455</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>12345</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -177,10 +173,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>您输入的期限月份无效。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -444,38 +436,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>您输入的名称无效。您输入的信用卡无效。您输入的期限月份无效。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>您输入的名称无效。您输入的信用卡无效。您输入的期限月份无效。您输入的期限年份无效。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>您输入的名称无效。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>您输入的信用卡无效。您输入的期限月份无效。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>您输入的名称无效。您输入的信用卡无效。您输入的期限月份无效。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>您输入的期限年份无效。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>您输入的信用卡无效。您输入的期限年份无效。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>您输入的名称无效。您输入的信用卡无效。您输入的期限年份无效。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>您输入的信用卡无效。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -492,30 +456,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>您输入的名称无效。您输入的信用卡无效。您输入的期限月份无效。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>您输入的名称无效。您输入的信用卡无效。您输入的期限月份无效。您输入的 CVV 无效。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>您输入的名称无效。您输入的信用卡无效。您输入的期限月份无效。您输入的期限年份无效。您输入的 CVV 无效。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>您输入的名称无效。您输入的信用卡无效。您输入的期限月份无效。您输入的期限年份无效。您输入的 CVV 无效。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>您输入的名称无效。您输入的信用卡无效。您输入的期限月份无效。您输入的期限年份无效。您输入的 CVV 无效。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>您输入的名称无效。您输入的信用卡无效。您输入的期限月份无效。您输入的期限年份无效。您输入的 CVV 无效。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>iMyMac - PowerMyMac One Year License for 1 Mac</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -594,6 +534,18 @@
   <si>
     <t>$219.8</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您输入的名称无效。您输入的信用卡无效。您输入的到期日期无效。</t>
+  </si>
+  <si>
+    <t>您输入的到期日期无效。</t>
+  </si>
+  <si>
+    <t>您输入的信用卡无效。您输入的到期日期无效。</t>
+  </si>
+  <si>
+    <t>您输入的名称无效。您输入的信用卡无效。您输入的到期日期无效。您输入的 CVV 无效。</t>
   </si>
 </sst>
 </file>
@@ -964,15 +916,15 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
         <v>66</v>
-      </c>
-      <c r="B4" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1049,7 +1001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -1061,114 +1013,114 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
         <v>60</v>
-      </c>
-      <c r="C1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1195,87 +1147,87 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
         <v>60</v>
       </c>
-      <c r="C1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" t="s">
-        <v>62</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1312,87 +1264,87 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
         <v>60</v>
       </c>
-      <c r="C1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" t="s">
-        <v>62</v>
-      </c>
       <c r="E1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1485,7 +1437,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1633,13 +1585,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.75" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="104.125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1661,12 +1613,12 @@
         <v>24</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>25</v>
@@ -1675,143 +1627,139 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1819,184 +1767,175 @@
         <v>27</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>25</v>
@@ -2005,17 +1944,16 @@
         <v>26</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
         <v>25</v>
       </c>
@@ -2023,59 +1961,55 @@
         <v>26</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -2083,7 +2017,6 @@
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -2091,7 +2024,6 @@
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -2099,7 +2031,6 @@
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -2107,503 +2038,440 @@
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="2"/>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="2"/>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="2"/>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="2"/>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="2"/>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="2"/>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="2"/>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="2"/>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="2"/>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="2"/>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="2"/>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="2"/>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="2"/>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="2"/>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="2"/>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="2"/>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="2"/>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="2"/>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="2"/>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="2"/>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="2"/>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="2"/>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="2"/>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="2"/>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="2"/>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="2"/>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="2"/>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="2"/>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="2"/>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="2"/>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="2"/>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="2"/>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="2"/>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="2"/>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="2"/>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="2"/>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="2"/>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="2"/>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="2"/>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="2"/>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="2"/>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="2"/>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="2"/>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -2652,12 +2520,12 @@
         <v>24</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>25</v>
@@ -2666,13 +2534,13 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2938,34 +2806,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2989,34 +2857,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
